--- a/data/sample/dataset1_example_struct_elig_criteria_hiv_format.xlsx
+++ b/data/sample/dataset1_example_struct_elig_criteria_hiv_format.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/main/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/main/Documents/GitHub/tophealth/data/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="10540" windowWidth="27760" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="27760" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="t_hiv_example_file2.txt" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>nci_id</t>
   </si>
@@ -56,12 +56,6 @@
     <t>UMLS CUI (eng)</t>
   </si>
   <si>
-    <t>SNOWMED_CT</t>
-  </si>
-  <si>
-    <t>SNOWMED_CT (eng)</t>
-  </si>
-  <si>
     <t>ICD10CM</t>
   </si>
   <si>
@@ -144,13 +138,22 @@
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>Note: Grey entries are derived via automated mappings and may not be accurate.</t>
+  </si>
+  <si>
+    <t>SNOMED_CT (eng)</t>
+  </si>
+  <si>
+    <t>SNOMED_CT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,13 +177,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -197,9 +214,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -482,139 +519,171 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="A1:P1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="7"/>
+    <col min="10" max="10" width="14.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="18" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="22.5" style="7" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N6" s="1"/>
+      <c r="N6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/sample/dataset1_example_struct_elig_criteria_hiv_format.xlsx
+++ b/data/sample/dataset1_example_struct_elig_criteria_hiv_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="27760" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="9780" yWindow="2540" windowWidth="28800" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="t_hiv_example_file2.txt" sheetId="1" r:id="rId1"/>
@@ -519,17 +519,17 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
@@ -595,7 +595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>

--- a/data/sample/dataset1_example_struct_elig_criteria_hiv_format.xlsx
+++ b/data/sample/dataset1_example_struct_elig_criteria_hiv_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="2540" windowWidth="28800" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1720" windowWidth="28800" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="t_hiv_example_file2.txt" sheetId="1" r:id="rId1"/>
@@ -44,109 +44,109 @@
     <t>description</t>
   </si>
   <si>
+    <t>English Text</t>
+  </si>
+  <si>
+    <t>UMLS CUI</t>
+  </si>
+  <si>
+    <t>UMLS CUI (eng)</t>
+  </si>
+  <si>
+    <t>ICD10CM</t>
+  </si>
+  <si>
+    <t>ICD10CM (eng)</t>
+  </si>
+  <si>
+    <t>LOINC</t>
+  </si>
+  <si>
+    <t>LOINC (eng)</t>
+  </si>
+  <si>
+    <t>NCI-2009-00817</t>
+  </si>
+  <si>
+    <t>NCT00001337</t>
+  </si>
+  <si>
+    <t>Dose-Adjusted EPOCH Chemotherapy and Rituximab (Cd20+) in Adults and Children with Previously Untreated Aggressive Non-Hodgkin's Lymphoma</t>
+  </si>
+  <si>
+    <t>Inclusion</t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus (HIV) negative</t>
+  </si>
+  <si>
+    <t>HIV excluded OR HIV UNKNOWN</t>
+  </si>
+  <si>
+    <t>C15175 = NO OR C15175=C17998</t>
+  </si>
+  <si>
+    <t>'HIV Positivity' = NO OR 'HIV Positivity'='Unknown'</t>
+  </si>
+  <si>
+    <t>278977008 = NO OR 278977008=261665006</t>
+  </si>
+  <si>
+    <t>'HIV status' = NO OR 'HIV status'='Unknown'</t>
+  </si>
+  <si>
+    <t>Z71.7 = NO OR Z71.7=N27</t>
+  </si>
+  <si>
+    <t>LP183501-8 = NO OR LP183501-8=LA4489-6</t>
+  </si>
+  <si>
+    <t>'HIV' = NO OR 'HIV'='Unknown'</t>
+  </si>
+  <si>
+    <t>NCI-2011-00312</t>
+  </si>
+  <si>
+    <t>NCT01012817</t>
+  </si>
+  <si>
+    <t>A Phase 1/2 Trial of ABT-888, an Inhibitor of Poly(ADP-ribose) Polymerase (PARP), and Topotecan (TPT) in Patients with Solid Tumors (Phase 1) and Relapsed Ovarian Cancer or Primary Peritoneal Cancer (Phase 2) after Prior Platinum Containing First-Line Chemotherapy</t>
+  </si>
+  <si>
+    <t>Exclusion</t>
+  </si>
+  <si>
+    <t>Immunocompromised patients (other than that related to the use of corticosteroids) including patients known to be human immunodeficiency virus (HIV) positive</t>
+  </si>
+  <si>
+    <t>HIV negative included:  Immunocompromised excluded (unless due to corticosteroid usage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14139 = NO OR (C14139=NO AND C211=YES) AND (C15175 = NO OR C15175=C17998) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Immunocompromised  ' = NO OR ('Immunocompromised  '=NO AND 'Therapeutic Corticosteroid'=YES) AND ('HIV Positivity' = NO OR 'HIV Positivity'='Unknown') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">370388006 = NO OR (370388006=NO AND 363733008=YES) AND (278977008 = NO OR 278977008=261665006) </t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus [HIV] counseling' = NO OR 'Human immunodeficiency virus [HIV] counseling'='Small kidney of unknown cause'</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Note: Grey entries are derived via automated mappings and may not be accurate.</t>
+  </si>
+  <si>
+    <t>SNOMED_CT (eng)</t>
+  </si>
+  <si>
+    <t>SNOMED_CT</t>
+  </si>
+  <si>
     <t>NCIT</t>
-  </si>
-  <si>
-    <t>English Text</t>
-  </si>
-  <si>
-    <t>UMLS CUI</t>
-  </si>
-  <si>
-    <t>UMLS CUI (eng)</t>
-  </si>
-  <si>
-    <t>ICD10CM</t>
-  </si>
-  <si>
-    <t>ICD10CM (eng)</t>
-  </si>
-  <si>
-    <t>LOINC</t>
-  </si>
-  <si>
-    <t>LOINC (eng)</t>
-  </si>
-  <si>
-    <t>NCI-2009-00817</t>
-  </si>
-  <si>
-    <t>NCT00001337</t>
-  </si>
-  <si>
-    <t>Dose-Adjusted EPOCH Chemotherapy and Rituximab (Cd20+) in Adults and Children with Previously Untreated Aggressive Non-Hodgkin's Lymphoma</t>
-  </si>
-  <si>
-    <t>Inclusion</t>
-  </si>
-  <si>
-    <t>Human immunodeficiency virus (HIV) negative</t>
-  </si>
-  <si>
-    <t>HIV excluded OR HIV UNKNOWN</t>
-  </si>
-  <si>
-    <t>C15175 = NO OR C15175=C17998</t>
-  </si>
-  <si>
-    <t>'HIV Positivity' = NO OR 'HIV Positivity'='Unknown'</t>
-  </si>
-  <si>
-    <t>278977008 = NO OR 278977008=261665006</t>
-  </si>
-  <si>
-    <t>'HIV status' = NO OR 'HIV status'='Unknown'</t>
-  </si>
-  <si>
-    <t>Z71.7 = NO OR Z71.7=N27</t>
-  </si>
-  <si>
-    <t>LP183501-8 = NO OR LP183501-8=LA4489-6</t>
-  </si>
-  <si>
-    <t>'HIV' = NO OR 'HIV'='Unknown'</t>
-  </si>
-  <si>
-    <t>NCI-2011-00312</t>
-  </si>
-  <si>
-    <t>NCT01012817</t>
-  </si>
-  <si>
-    <t>A Phase 1/2 Trial of ABT-888, an Inhibitor of Poly(ADP-ribose) Polymerase (PARP), and Topotecan (TPT) in Patients with Solid Tumors (Phase 1) and Relapsed Ovarian Cancer or Primary Peritoneal Cancer (Phase 2) after Prior Platinum Containing First-Line Chemotherapy</t>
-  </si>
-  <si>
-    <t>Exclusion</t>
-  </si>
-  <si>
-    <t>Immunocompromised patients (other than that related to the use of corticosteroids) including patients known to be human immunodeficiency virus (HIV) positive</t>
-  </si>
-  <si>
-    <t>HIV negative included:  Immunocompromised excluded (unless due to corticosteroid usage)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14139 = NO OR (C14139=NO AND C211=YES) AND (C15175 = NO OR C15175=C17998) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Immunocompromised  ' = NO OR ('Immunocompromised  '=NO AND 'Therapeutic Corticosteroid'=YES) AND ('HIV Positivity' = NO OR 'HIV Positivity'='Unknown') </t>
-  </si>
-  <si>
-    <t xml:space="preserve">370388006 = NO OR (370388006=NO AND 363733008=YES) AND (278977008 = NO OR 278977008=261665006) </t>
-  </si>
-  <si>
-    <t>Human immunodeficiency virus [HIV] counseling' = NO OR 'Human immunodeficiency virus [HIV] counseling'='Small kidney of unknown cause'</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Note: Grey entries are derived via automated mappings and may not be accurate.</t>
-  </si>
-  <si>
-    <t>SNOMED_CT (eng)</t>
-  </si>
-  <si>
-    <t>SNOMED_CT</t>
   </si>
 </sst>
 </file>
@@ -519,10 +519,10 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,114 +562,114 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="176" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -679,7 +679,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
